--- a/Documentos Cliente/Modelo_Dados.xlsx
+++ b/Documentos Cliente/Modelo_Dados.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\28725446827\Desktop\MedicalGroup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.henrique\Documents\Senai\1_Semestre_2019\1s2019-t2\cases\sprint1-anexos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Especialidades" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="84">
   <si>
     <t>86.400.902/0001-30</t>
   </si>
@@ -264,6 +264,21 @@
   </si>
   <si>
     <t>54566266-8</t>
+  </si>
+  <si>
+    <t>Clinica</t>
+  </si>
+  <si>
+    <t>helena.souza@spmedicalgroup.com.br</t>
+  </si>
+  <si>
+    <t>54356-SP</t>
+  </si>
+  <si>
+    <t>53452-SP</t>
+  </si>
+  <si>
+    <t>65463-SP</t>
   </si>
 </sst>
 </file>
@@ -665,7 +680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -773,17 +788,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35.21875" style="2" customWidth="1"/>
@@ -804,7 +819,7 @@
         <v>21</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>22</v>
@@ -817,8 +832,8 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>54356</v>
+      <c r="A2" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
@@ -843,8 +858,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>53452</v>
+      <c r="A3" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>16</v>
@@ -869,14 +884,14 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>65463</v>
+      <c r="A4" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>28</v>
@@ -909,7 +924,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
